--- a/共享书单_我的小宇宙.xlsx
+++ b/共享书单_我的小宇宙.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iris" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>预计归还天数=归还日期(预计时间）-today。例如2017/12/31-today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少有人走的路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,16 +157,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,7 +473,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,422 +484,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/共享书单_我的小宇宙.xlsx
+++ b/共享书单_我的小宇宙.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>少有人走的路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越自卑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,12 +477,13 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -566,8 +571,12 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>

--- a/共享书单_我的小宇宙.xlsx
+++ b/共享书单_我的小宇宙.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="冯燕" sheetId="2" r:id="rId1"/>
     <sheet name="林俊轩" sheetId="3" r:id="rId2"/>
     <sheet name="谢振华" sheetId="4" r:id="rId3"/>
+    <sheet name="刘雪梅" sheetId="5" r:id="rId4"/>
+    <sheet name="Sophie" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="271">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,12 +703,374 @@
     <t>《人生》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>刘雪梅--书籍汇整</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>书名</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>借阅</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>借阅人</t>
+  </si>
+  <si>
+    <t>借阅日期</t>
+  </si>
+  <si>
+    <t>归还日期</t>
+  </si>
+  <si>
+    <t>《杜拉拉升职记》</t>
+  </si>
+  <si>
+    <t>李可</t>
+  </si>
+  <si>
+    <t>《杜拉拉2华年似水》</t>
+  </si>
+  <si>
+    <t>《杜拉拉3我在这战斗的一年里》</t>
+  </si>
+  <si>
+    <t>《杜拉拉大结局与理想有关》</t>
+  </si>
+  <si>
+    <t>《不是我教你诈》</t>
+  </si>
+  <si>
+    <t>刘墉</t>
+  </si>
+  <si>
+    <t>《把话说到心窝里1》</t>
+  </si>
+  <si>
+    <t>《把话说到心窝里2》</t>
+  </si>
+  <si>
+    <t>《三角地》</t>
+  </si>
+  <si>
+    <t>曹文轩</t>
+  </si>
+  <si>
+    <t>《湘行散记》</t>
+  </si>
+  <si>
+    <t>沈从文</t>
+  </si>
+  <si>
+    <t>《老人与海》</t>
+  </si>
+  <si>
+    <t>美  海明威</t>
+  </si>
+  <si>
+    <t>《钢铁是怎样炼成的》</t>
+  </si>
+  <si>
+    <t>苏联  奥斯特洛夫斯基</t>
+  </si>
+  <si>
+    <t>《假如给我三天光明》</t>
+  </si>
+  <si>
+    <t>美  海伦.凯勒</t>
+  </si>
+  <si>
+    <t>《巴黎圣母院》</t>
+  </si>
+  <si>
+    <t>法  雨果</t>
+  </si>
+  <si>
+    <t>《雾都孤儿》</t>
+  </si>
+  <si>
+    <t>英  查尔斯.狄更斯</t>
+  </si>
+  <si>
+    <t>《解忧杂货店》</t>
+  </si>
+  <si>
+    <t>日   东野圭吾</t>
+  </si>
+  <si>
+    <t>《白夜行》</t>
+  </si>
+  <si>
+    <t>《嫌疑人x的献身》</t>
+  </si>
+  <si>
+    <t>《恶意》</t>
+  </si>
+  <si>
+    <t>《天才在左，疯子在右》</t>
+  </si>
+  <si>
+    <t>高铭</t>
+  </si>
+  <si>
+    <t>《男人来自金星，女人来自火星》</t>
+  </si>
+  <si>
+    <t>美   约翰.格雷</t>
+  </si>
+  <si>
+    <t>《看见》</t>
+  </si>
+  <si>
+    <t>柴静</t>
+  </si>
+  <si>
+    <t>《女心理师》</t>
+  </si>
+  <si>
+    <t>毕淑敏</t>
+  </si>
+  <si>
+    <t>《笑面人》</t>
+  </si>
+  <si>
+    <t>《向死而生-我修的死亡学分》</t>
+  </si>
+  <si>
+    <t>李开复</t>
+  </si>
+  <si>
+    <t>《世界因你不同》</t>
+  </si>
+  <si>
+    <t>书籍汇整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借阅人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借阅日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《改变》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德烈·米勒【法】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《生命的重建》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露易丝·海【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《接纳不完美的自己》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福特【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《拖延心理学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简·博克【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高效能人士的七个习惯》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史蒂芬·柯维【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《要事第一》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《把时间当做朋友》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李笑来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《自控力》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯利·麦格尼格尔【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《秘密》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗达.拜恩【澳】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《学会提问》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼尔·布朗【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高难度谈话》</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>道格拉斯·斯通【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《沟通的艺术》</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗纳德·B·阿德勒【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《刻意练习》</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德斯·艾里克森【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《知行合一》</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>度阴山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《活法》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻盛和夫【日】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《正面管教》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简·尼尔森【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《你以为的就是你以为的吗？》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴吉尼【英】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《不与自己对抗，你就会更强大》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里斯托弗·肯·吉莫【美】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中国哲学简史》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯友兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《万历十五年》</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄仁宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《少年派的奇幻漂流记》</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬·加盖【加】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《百年孤独》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加西亚·马尔克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +1108,29 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -807,11 +1194,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,14 +1222,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1150,44 +1561,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1197,951 +1608,951 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="6">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="6">
+      <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="6">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="6">
+      <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="6">
+      <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="6">
+      <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="6">
+      <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="6">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2179,44 +2590,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>122</v>
       </c>
@@ -2226,327 +2637,327 @@
       <c r="G3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2567,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2579,44 +2990,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2626,391 +3037,391 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3029,4 +3440,1052 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>